--- a/biology/Botanique/Andira_coriacea/Andira_coriacea.xlsx
+++ b/biology/Botanique/Andira_coriacea/Andira_coriacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saint-Martin rouge
-Le Saint-Martin rouge (Andira coriacea) est une espèce de plantes à fleurs de la famille des Fabaceae[1]. C'est un arbre tropical endémique du Suriname et de Guyane française[2],[3],[4],[5].
+Le Saint-Martin rouge (Andira coriacea) est une espèce de plantes à fleurs de la famille des Fabaceae. C'est un arbre tropical endémique du Suriname et de Guyane française.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description morphologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il peut atteindre 40 m de haut. Il est également présent sur le continent africain. Le tronc est généralement sans contreforts mais il peut y avoir des empattements. L'écorce externe est de couleur grise à brun sombre violacé, grumeleuse et craquelée longitudinalement. la surface est irrégulière avec une alternance de bois dur et de bois tendre[6]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il peut atteindre 40 m de haut. Il est également présent sur le continent africain. Le tronc est généralement sans contreforts mais il peut y avoir des empattements. L'écorce externe est de couleur grise à brun sombre violacé, grumeleuse et craquelée longitudinalement. la surface est irrégulière avec une alternance de bois dur et de bois tendre. 
 </t>
         </is>
       </c>
@@ -545,10 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description technologique
-Le diamètre de cet arbre est en général de 60 à 90 cm et peut atteindre 110 cm. Son bois est lourd et dur. Sa densité moyenne est de 0,85 (750 à 950 kg m−3 sec ; 1 200 kg m−3 à l'état vert). Sa couleur est  brun rouge foncé au cœur avec un aspect strié. Son grain est moyen à grossier[7].
-Durabilité et traitement de préservation
-Il est très durable aux champignons de pourriture.
+          <t>Description technologique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diamètre de cet arbre est en général de 60 à 90 cm et peut atteindre 110 cm. Son bois est lourd et dur. Sa densité moyenne est de 0,85 (750 à 950 kg m−3 sec ; 1 200 kg m−3 à l'état vert). Sa couleur est  brun rouge foncé au cœur avec un aspect strié. Son grain est moyen à grossier.
 </t>
         </is>
       </c>
@@ -574,10 +591,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Caractéristiques technologiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Durabilité et traitement de préservation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est très durable aux champignons de pourriture.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Andira_coriacea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andira_coriacea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En charpente : entourage, queue de billard, balustre, manche de parapluie. Pont à charpente + USA construction en eau douce.
 En menuiserie: intérieure labri, manches de couteau, porte d'entrée, parquet et extérieur entourage.
